--- a/biology/Médecine/George_Miller_Beard/George_Miller_Beard.xlsx
+++ b/biology/Médecine/George_Miller_Beard/George_Miller_Beard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Miller Beard (né le 8 mai 1839 à Montville et mort le 23 janvier 1883 à New York), est un neurologue américain ayant inventé le terme neurasthénie, dans les années 1860.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Montville dans le Connecticut le 8 mai 1839, George Beard est le fils du révérend Spencer F. Beard et de Lucy A. Leonard, qui décèdera prématurément en 1842. Son père se remaria l'année suivante à Mary Ann Fellowes.
-Beard fait ses études de médecine à Yale où il sort diplômé en 1862 avant de rejoindre quatre ans plus tard le College of Physicians and Surgeons of New York[2].
-Durant sa carrière de médecin, il s'intéressa à l'électrothérapie, l'hypnose, la neurologie, le spiritualisme, la longévité et la réforme des études de médecine. Il fut également sollicité en tant qu'expert sur la santé mentale dans des affaires judiciaires[3],[2].
-Il meurt le 23 janvier 1883. Il laissa sa fille Grace Alden Beard qui fut placée dans un orphelinat à l'âge de 7 ans à la suite des décès à une semaine d'intervalle de ses deux parents[3],[2].
+Beard fait ses études de médecine à Yale où il sort diplômé en 1862 avant de rejoindre quatre ans plus tard le College of Physicians and Surgeons of New York.
+Durant sa carrière de médecin, il s'intéressa à l'électrothérapie, l'hypnose, la neurologie, le spiritualisme, la longévité et la réforme des études de médecine. Il fut également sollicité en tant qu'expert sur la santé mentale dans des affaires judiciaires,.
+Il meurt le 23 janvier 1883. Il laissa sa fille Grace Alden Beard qui fut placée dans un orphelinat à l'âge de 7 ans à la suite des décès à une semaine d'intervalle de ses deux parents,.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Contributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fondateur des Archives of Electricity and Neurology (1874-1976)
 Membre fondateur de la National Association of the Protection of the Insane and of the American Neurological Society.</t>
@@ -576,7 +592,9 @@
           <t>Livres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Medical and Surgical Electricity, co-écrit par A. D. Rockwell, en 1875.
 Neurasthenia (Nervous Exhaustion) with Remarks on Treatment, en 1879
